--- a/teste.xlsx
+++ b/teste.xlsx
@@ -3,25 +3,33 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Teste" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -42,14 +50,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -444,15 +455,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="31.5546875" customWidth="1" min="1" max="1"/>
+    <col width="48.21875" customWidth="1" min="2" max="2"/>
+    <col width="51.6640625" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -470,9 +483,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>✅</t>
-        </is>
-      </c>
+          <t>google.com, pub-8040388658478813, DIRECT, f08c47fec0942fa0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>google.com, pub-8040388658478813, DIRECT, f08c47fec0942fa0
+google.com, pub-2050713241302254, DIRECT, f08c47fec0942fa0
+google.com, pub-9013691979317055, DIRECT, f08c47fec0942fa0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>google.com, pub-8803693718638509, DIRECT, f08c47fec0942fa0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>google.com, pub-8803693718638509, DIRECT, f08c47fec0942fa0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
